--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1528639.635608421</v>
+        <v>1632819.270059493</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>96.42217904608398</v>
+        <v>24.78311755148286</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -716,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.28798759565949</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>91.29607088177438</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.70969583585409</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>67.95428330242152</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>67.60666166344782</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>81.57555513300723</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>118.693075208796</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>316.3713552875034</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>188.2932857476845</v>
+        <v>105.0545713093814</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.0764391540988</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>41.55695577161328</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410134</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>41.55695577161151</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>134.5665975534142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>169.5153072244331</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>134.5665975534142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>207.0967504439648</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766866</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>79.9081607862897</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.63824106824919</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>89.79511523533237</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4186,16 +4188,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>122.4770547252865</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.547110979148</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4349,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>825.3518203322459</v>
+        <v>477.7831921883597</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>308.8470092604529</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>158.7303698481171</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y4" t="n">
-        <v>881.1982724490737</v>
+        <v>659.4316570185995</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1659.057359339775</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1659.057359339775</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1300.791660733025</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4568,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4607,10 +4609,10 @@
         <v>2435.796531379709</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118629</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142817</v>
+        <v>2045.657199403897</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.9911633238872</v>
+        <v>696.1640136694029</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1653.209113275918</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1364.106246401562</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1109.421758195675</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W7" t="n">
-        <v>1109.421758195675</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="X7" t="n">
-        <v>881.4322072976571</v>
+        <v>1098.605057643173</v>
       </c>
       <c r="Y7" t="n">
-        <v>660.639628154127</v>
+        <v>877.8124784996427</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>936.970515533955</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>936.970515533955</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>525.9846107443475</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2689.770379977556</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2689.770379977556</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2689.770379977556</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.4834000772721</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4999,13 +5001,13 @@
         <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>979.1318649075118</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="Y10" t="n">
-        <v>979.1318649075118</v>
+        <v>773.7942044041906</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,16 +5050,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5232,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5285,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5598,22 +5600,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.306025422647</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.3698424947402</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>779.2532030824044</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1279.954490252887</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>2381.235169913446</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>2978.613657539998</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>3606.211621094605</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>4158.121351333892</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3007.624207651098</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2838.688024723192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2688.571385310856</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3189.272672481338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>2804.65264778894</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>2635.716464861033</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>2485.599825448698</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>3979.184900903575</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>3724.500412697688</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.385853854706</v>
+        <v>3435.083242660728</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>3207.09369176271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>2986.30111261918</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>135.7933860495997</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.981709809277</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>2877.307316025036</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>3474.685803651587</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>4102.283767206194</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>4654.193497445481</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2804.65264778894</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C31" t="n">
-        <v>2635.716464861033</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>2485.599825448698</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866304</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4487.861592536436</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4268.260127559377</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3979.184900903575</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V31" t="n">
-        <v>3724.500412697688</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W31" t="n">
-        <v>3435.083242660728</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X31" t="n">
-        <v>3207.09369176271</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y31" t="n">
-        <v>2986.30111261918</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6783,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.65264778894</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861033</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448698</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4487.861592536436</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4268.260127559377</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903575</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697688</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660728</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.09369176271</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.30111261918</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7026,13 +7028,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7123,22 +7125,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1938.286391947399</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.240688199802</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.823518162841</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.0424953278208</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2425.106274420413</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2242.251440075317</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2022.649975098258</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1733.574748442456</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1478.890260236569</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1189.473090199608</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>961.4835393015907</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>740.6909601580605</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7630,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7728,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7834,22 +7836,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2140.394052542956</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1851.318825887154</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
   </sheetData>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0.3575234924704205</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>104.8770068749559</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>46.45968844823074</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.70888054695403</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>46.45968844823039</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>134.6711151870887</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>46.45968844823039</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>79.42624789262624</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>35.40333084624467</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.73700564187249</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.82035778287998</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>94.92839560200177</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="F2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="G2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985042</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-994575.4908303712</v>
+        <v>-994575.490830371</v>
       </c>
       <c r="C6" t="n">
-        <v>334169.2548972218</v>
+        <v>334169.2548972215</v>
       </c>
       <c r="D6" t="n">
         <v>334169.2548972217</v>
       </c>
       <c r="E6" t="n">
-        <v>85723.37798542362</v>
+        <v>85723.37798542345</v>
       </c>
       <c r="F6" t="n">
-        <v>411135.8397927786</v>
+        <v>411135.8397927787</v>
       </c>
       <c r="G6" t="n">
+        <v>411135.8397927785</v>
+      </c>
+      <c r="H6" t="n">
         <v>411135.8397927787</v>
-      </c>
-      <c r="H6" t="n">
-        <v>411135.8397927789</v>
       </c>
       <c r="I6" t="n">
         <v>411135.8397927788</v>
       </c>
       <c r="J6" t="n">
-        <v>193604.6373955011</v>
+        <v>193604.6373955014</v>
       </c>
       <c r="K6" t="n">
-        <v>411135.8397927788</v>
+        <v>411135.8397927786</v>
       </c>
       <c r="L6" t="n">
         <v>411135.8397927787</v>
       </c>
       <c r="M6" t="n">
-        <v>326080.8118572669</v>
+        <v>326080.8118572666</v>
       </c>
       <c r="N6" t="n">
-        <v>411135.8397927787</v>
+        <v>411135.8397927788</v>
       </c>
       <c r="O6" t="n">
-        <v>411135.8397927786</v>
+        <v>411135.8397927788</v>
       </c>
       <c r="P6" t="n">
         <v>411135.8397927787</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>258.2608625745989</v>
+        <v>329.8999240692001</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.5439925862778</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.13789176479479</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329.0241458276265</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>313.9760867698403</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>99.64015943518001</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>137.973394143162</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>292.2286504446574</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>11.38090318263153</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>37.4163696413527</v>
+        <v>120.6550840796558</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31838,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491741</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>602.8420149078241</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,13 +33031,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,10 +33265,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>289.7537444526272</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33503,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34138,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34448,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>471.5003028244908</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1632819.270059493</v>
+        <v>1628806.6600455</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283176</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>24.78311755148286</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -718,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>91.29607088177438</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>279.3751023006579</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>67.95428330242152</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>67.60666166344782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>118.693075208796</v>
+        <v>302.0443107340039</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>251.5023521518549</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>105.0545713093814</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>16.77337404802731</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.0764391540988</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.8253826161983306</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788186685</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
-        <v>239.7247859410134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695497</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576167</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>169.5153072244331</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>110.0177171766866</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>99.72336853883914</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>55.52079624060383</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>89.79511523533237</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>192.7715349547537</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1642.972675199008</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1642.972675199008</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4333,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263129</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.572515263129</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7831921883597</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>308.8470092604529</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>158.7303698481171</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4518,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621296</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X4" t="n">
-        <v>880.2242361621296</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.4316570185995</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1659.057359339775</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
-        <v>1659.057359339775</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1300.791660733025</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4570,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379709</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2435.796531379709</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>2045.657199403897</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>696.1640136694029</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.59460854119</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.605057643173</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.8124784996427</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140705</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.236214140705</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D8" t="n">
-        <v>936.970515533955</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="E8" t="n">
-        <v>936.970515533955</v>
+        <v>378.5528805490677</v>
       </c>
       <c r="F8" t="n">
-        <v>525.9846107443475</v>
+        <v>371.6073797998642</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1673.251768137125</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X10" t="n">
-        <v>773.7942044041906</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y10" t="n">
-        <v>773.7942044041906</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>481.447947124485</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>334.5579996265747</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.306025422647</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>929.3698424947402</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>779.2532030824044</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>1500.747069396417</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>1279.954490252887</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192724</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111728</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814783027</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038414</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797816</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910816</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570825</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853368</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2804.65264778894</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>2635.716464861033</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2485.599825448698</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>3979.184900903575</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3724.500412697688</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3435.083242660728</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3207.09369176271</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>2986.30111261918</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6262,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2757.723669558405</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2757.723669558405</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2757.723669558405</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>149.8982754122182</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>149.8982754122182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>870.3164745246296</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>870.3164745246296</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.757518498399</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.964939354869</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>148.7507642442415</v>
       </c>
       <c r="H13" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3575234924704205</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409392333</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392193497</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
-        <v>46.45968844823074</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>35.40333084624467</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>67.52345255978869</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.7450400779617</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>58.82035778287998</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>24.63391537253457</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
@@ -26328,13 +26328,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985041</v>
@@ -26343,16 +26343,16 @@
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="M2" t="n">
-        <v>524645.2897985037</v>
-      </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.63739218300907e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-994575.490830371</v>
+        <v>-994575.4908303712</v>
       </c>
       <c r="C6" t="n">
+        <v>334169.2548972217</v>
+      </c>
+      <c r="D6" t="n">
         <v>334169.2548972215</v>
       </c>
-      <c r="D6" t="n">
-        <v>334169.2548972217</v>
-      </c>
       <c r="E6" t="n">
-        <v>85723.37798542345</v>
+        <v>85375.99873106687</v>
       </c>
       <c r="F6" t="n">
-        <v>411135.8397927787</v>
+        <v>410788.4605384218</v>
       </c>
       <c r="G6" t="n">
-        <v>411135.8397927785</v>
+        <v>410788.4605384215</v>
       </c>
       <c r="H6" t="n">
-        <v>411135.8397927787</v>
+        <v>410788.4605384217</v>
       </c>
       <c r="I6" t="n">
-        <v>411135.8397927788</v>
+        <v>410788.4605384216</v>
       </c>
       <c r="J6" t="n">
-        <v>193604.6373955014</v>
+        <v>193257.2581411448</v>
       </c>
       <c r="K6" t="n">
-        <v>411135.8397927786</v>
+        <v>410788.4605384216</v>
       </c>
       <c r="L6" t="n">
-        <v>411135.8397927787</v>
+        <v>410788.4605384216</v>
       </c>
       <c r="M6" t="n">
-        <v>326080.8118572666</v>
+        <v>325733.43260291</v>
       </c>
       <c r="N6" t="n">
-        <v>411135.8397927788</v>
+        <v>410788.4605384216</v>
       </c>
       <c r="O6" t="n">
-        <v>411135.8397927788</v>
+        <v>410788.4605384218</v>
       </c>
       <c r="P6" t="n">
-        <v>411135.8397927787</v>
+        <v>410788.4605384218</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022918</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>303.9530049144607</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>329.8999240692001</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>55.13789176479479</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>103.3587393628226</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>313.9760867698403</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>99.64015943518001</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>31.98681829672469</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>292.2286504446574</v>
+        <v>108.8774149194496</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>34.70948605375796</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>120.6550840796558</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.4716765429928e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>7.164165557090503e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,19 +31837,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,7 +31858,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067244</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,7 +35506,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060526</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318498</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326296039</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1628806.6600455</v>
+        <v>1630567.190348285</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.78083674901981</v>
+        <v>78.78083674902116</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>279.3751023006579</v>
+        <v>279.3751023006566</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>302.0443107340039</v>
+        <v>302.0443107340022</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>251.5023521518549</v>
+        <v>251.5023521518545</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>16.77337404802731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>90.69284018413023</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8253826161983306</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788186685</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>149.9095691544923</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695497</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576167</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.72336853883914</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3951,16 +3951,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>192.7715349547537</v>
+        <v>205.3566940380633</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4479,13 +4479,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4713,16 +4713,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694474</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754062</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473119</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490677</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F8" t="n">
-        <v>371.6073797998642</v>
+        <v>371.6073797998624</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265602</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758596</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4950,31 +4950,31 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647277</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368208</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>481.447947124485</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>481.447947124485</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>334.5579996265747</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2105.453616008648</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1816.378389352846</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949674</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5296,10 +5296,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,49 +5518,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.673064443772</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192724</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111728</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814783027</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038414</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797816</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910816</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7414,10 +7414,10 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253734</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
         <v>632.7243904253734</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.7363435406111</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
         <v>538.7363435406111</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2002.343823311048</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U46" t="n">
-        <v>1713.268596655246</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V46" t="n">
-        <v>1458.584108449359</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.166938412398</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X46" t="n">
-        <v>941.1773875143809</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.3848083708508</v>
+        <v>707.672526468518</v>
       </c>
     </row>
   </sheetData>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>148.7507642442415</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>126.712610143158</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.54986409392333</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392193497</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>67.52345255978869</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>24.63391537253457</v>
+        <v>12.04875628922494</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="15">
@@ -26316,7 +26316,7 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
@@ -26325,37 +26325,37 @@
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.63739218300907e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972771</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316939</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316945</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316939</v>
-      </c>
       <c r="D4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26524,46 +26524,46 @@
         <v>-994575.4908303712</v>
       </c>
       <c r="C6" t="n">
+        <v>334169.2548972215</v>
+      </c>
+      <c r="D6" t="n">
         <v>334169.2548972217</v>
       </c>
-      <c r="D6" t="n">
-        <v>334169.2548972215</v>
-      </c>
       <c r="E6" t="n">
-        <v>85375.99873106687</v>
+        <v>85688.64005998751</v>
       </c>
       <c r="F6" t="n">
-        <v>410788.4605384218</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="G6" t="n">
-        <v>410788.4605384215</v>
+        <v>411101.1018673432</v>
       </c>
       <c r="H6" t="n">
-        <v>410788.4605384217</v>
+        <v>411101.1018673431</v>
       </c>
       <c r="I6" t="n">
-        <v>410788.4605384216</v>
+        <v>411101.1018673431</v>
       </c>
       <c r="J6" t="n">
-        <v>193257.2581411448</v>
+        <v>193569.8994700655</v>
       </c>
       <c r="K6" t="n">
-        <v>410788.4605384216</v>
+        <v>411101.101867343</v>
       </c>
       <c r="L6" t="n">
-        <v>410788.4605384216</v>
+        <v>411101.101867343</v>
       </c>
       <c r="M6" t="n">
-        <v>325733.43260291</v>
+        <v>326046.0739318312</v>
       </c>
       <c r="N6" t="n">
-        <v>410788.4605384216</v>
+        <v>411101.101867343</v>
       </c>
       <c r="O6" t="n">
-        <v>410788.4605384218</v>
+        <v>411101.101867343</v>
       </c>
       <c r="P6" t="n">
-        <v>410788.4605384218</v>
+        <v>411101.1018673431</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022918</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.9530049144607</v>
+        <v>303.9530049144594</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.3587393628226</v>
+        <v>103.3587393628239</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>108.8774149194496</v>
+        <v>108.8774149194513</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>34.70948605375796</v>
+        <v>34.70948605375841</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.4716765429928e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>7.164165557090503e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.97563488453549e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060526</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318498</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326296039</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
